--- a/docs/PTA2_DDC_40/PTA1_R5_BDDC_08.11.2024_output.xlsx
+++ b/docs/PTA2_DDC_40/PTA1_R5_BDDC_08.11.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K95"/>
+  <dimension ref="A1:N95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,1684 +505,1997 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731371364.8974714</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731371369.0713222</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731371364.8974714.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731371369.0713222.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>7130.5</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>7091</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>-39.5</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-0.5499999999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731371369.511228</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731371371.5472467</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731371369.511228.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731371371.5472467.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>7101</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>7100.5</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.5</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731371372.0325797</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731371372.3557801</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731371372.0325797.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731371372.3557801.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>7091</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>7098</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>7</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731371374.119804</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731371375.356873</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731371374.119804.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731371375.356873.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>7104.5</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>7093.5</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>11</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731371376.3876622</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731371376.7240562</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731371376.3876622.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731371376.7240562.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>7091</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>7100</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>9</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731371379.2334495</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731371382.656522</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731371379.2334495.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731371382.656522.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>7090</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>7075.5</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>-14.5</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731371382.7251375</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731371382.8475847</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731371382.7251375.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731371382.8475847.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>473.2</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>474</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.8000000000000114</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731371383.3409488</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731371385.6962032</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731371383.3409488.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731371385.6962032.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>474.5</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>475</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>-0.5</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731371385.9379873</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731371386.1579792</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731371385.9379873.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731371386.1579792.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>474.5</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>475.1</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.6000000000000227</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731371387.4252086</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731371388.6288676</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731371387.4252086.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731371388.6288676.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>473.85</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>473.9</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.04999999999995453</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731371393.3783631</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731371393.9514596</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731371393.3783631.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731371393.9514596.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>473.4</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>473.9</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.5</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731371395.6816263</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731371397.2759614</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731371395.6816263.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731371397.2759614.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>474.8</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>474.05</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0.75</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731371399.5874615</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731371402.0141873</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731371399.5874615.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731371402.0141873.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>475.05</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>475.75</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>-0.6999999999999886</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731371402.0823593</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731371402.0823593.png</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731371402.0823593.png</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>474.65</v>
       </c>
-      <c r="J16" t="n">
-        <v>474.65</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
+      <c r="L16" t="n">
+        <v>474.5</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-0.1499999999999773</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731371405.6604428</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731371406.2677834</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731371405.6604428.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731371406.2677834.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>934.2</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>932.6</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>1.600000000000023</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731371408.1483083</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731371410.9999366</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731371408.1483083.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731371410.9999366.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>932</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>928.2</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>-3.799999999999955</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.41</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731371411.4398546</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731371413.610154</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731371411.4398546.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731371413.610154.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>930.8</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>930</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>0.7999999999999545</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731371414.0805135</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731371415.491093</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731371414.0805135.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731371415.491093.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>930</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>931.8</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>1.799999999999955</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731371415.61713</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731371417.3636353</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731371415.61713.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731371417.3636353.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>932</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>931.6</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.3999999999999773</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731371421.6341403</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731371421.6341403.png</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731371421.6341403.png</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>932</v>
       </c>
-      <c r="J22" t="n">
-        <v>932</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
+      <c r="L22" t="n">
+        <v>930.8</v>
+      </c>
+      <c r="M22" t="n">
+        <v>-1.200000000000045</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-0.13</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731371424.015928</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731371424.57726</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731371424.015928.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731371424.57726.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>129.3</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>130.26</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>0.9599999999999795</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.74</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731371427.56191</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731371430.272175</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731371427.56191.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731371430.272175.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>129.6</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>129.36</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>-0.2399999999999807</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-0.19</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731371430.7882683</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731371430.9737203</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731371430.7882683.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731371430.9737203.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>129.62</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>129.3</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.3199999999999932</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731371431.3883634</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731371432.2953506</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731371431.3883634.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731371432.2953506.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>129.64</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>129.56</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>0.07999999999998408</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731371435.235317</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731371436.695821</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731371435.235317.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731371436.695821.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>129.9</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>129.94</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>-0.03999999999999204</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731371438.3180246</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731371438.4617848</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731371438.3180246.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731371438.4617848.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>129.7</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>130.1</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.4000000000000057</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731371438.9965932</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731371441.0607517</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731371438.9965932.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731371441.0607517.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>130.22</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>130.14</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.08000000000001251</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731371441.7595308</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731371441.7595308.png</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731371441.7595308.png</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>130.06</v>
       </c>
-      <c r="J30" t="n">
-        <v>130.06</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
+      <c r="L30" t="n">
+        <v>130.08</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.02000000000001023</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731371444.0709238</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731371445.7012386</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731371444.0709238.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731371445.7012386.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>37.86</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>37.895</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>-0.03500000000000369</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731371447.5889204</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731371448.9585006</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731371447.5889204.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731371448.9585006.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>37.725</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>37.855</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.1299999999999955</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731371451.2506695</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731371453.318909</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731371451.2506695.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731371453.318909.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>37.88</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>37.815</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.06500000000000483</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731371455.4145012</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731371456.8221445</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731371455.4145012.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731371456.8221445.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>37.955</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>37.94</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0.01500000000000057</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731371458.7063494</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731371460.3481522</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731371458.7063494.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731371460.3481522.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>38.05</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>38.035</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.01500000000000057</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731371461.073557</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731371462.5804238</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731371461.073557.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731371462.5804238.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>38.02</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>38.02</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2175,440 +2503,521 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731371462.936734</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731371463.1602392</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731371462.936734.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731371463.1602392.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>37.945</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>37.96</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.01500000000000057</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731371464.6453264</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731371466.8125393</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731371464.6453264.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731371466.8125393.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>1180.8</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>1184.6</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>-3.799999999999955</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-0.32</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731371468.2570963</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731371469.260231</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731371468.2570963.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731371469.260231.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>1182.4</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>1184.2</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>1.799999999999955</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731371471.6250572</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731371473.3802404</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731371471.6250572.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731371473.3802404.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>1186</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>1183.8</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>2.200000000000045</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731371473.9126732</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731371475.1436093</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731371473.9126732.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731371475.1436093.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>1182.8</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>1184.8</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>2</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731371475.4268115</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731371477.1381874</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731371475.4268115.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731371477.1381874.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>1186.8</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>1187.2</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>-0.4000000000000909</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731371477.8125367</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731371480.284221</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731371477.8125367.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731371480.284221.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>1191</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>1189.8</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>1.200000000000045</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731371481.3264565</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731371481.6307826</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731371481.3264565.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731371481.6307826.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>1191.4</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>1190.2</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>1.200000000000045</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731371482.2558239</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731371482.5895708</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731371482.2558239.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731371482.5895708.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>1190</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>1190</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2616,48 +3025,57 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731371485.1305165</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731371487.0142953</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731371485.1305165.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731371487.0142953.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>79.01000000000001</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>79.01000000000001</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2665,2369 +3083,2810 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731371487.8008738</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731371489.9715712</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731371487.8008738.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731371489.9715712.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>78.73999999999999</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>78.23</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>-0.5099999999999909</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-0.65</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731371490.8949232</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731371493.1337497</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731371490.8949232.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731371493.1337497.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>78.47</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>78.38</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>0.09000000000000341</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731371493.8223264</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731371495.2974987</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731371493.8223264.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731371495.2974987.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>78.15000000000001</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>78.38</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.2299999999999898</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731371495.6528773</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731371497.1929018</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731371495.6528773.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731371497.1929018.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>78.53</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>78.42</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.1099999999999994</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731371499.4721873</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731371501.6363177</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731371499.4721873.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731371501.6363177.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>78.61</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>78.72</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>-0.1099999999999994</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731371501.9917026</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731371502.3777492</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731371501.9917026.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731371502.3777492.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>78.65000000000001</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>78.68000000000001</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>0.03000000000000114</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731371503.1785889</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>./test_images/VTBR1731371503.1785889.png</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
+          <t>./test_images/VTBR1731371503.1785889.png</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>78.55</v>
       </c>
-      <c r="J53" t="n">
-        <v>78.55</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0</v>
+      <c r="L53" t="n">
+        <v>78.62</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.07000000000000739</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731371504.1172802</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731371505.6810787</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731371504.1172802.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731371505.6810787.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>103.28</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>103.52</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>0.2399999999999949</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731371506.664244</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731371507.0584989</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731371506.664244.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731371507.0584989.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>103</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>103.16</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>0.1599999999999966</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731371508.3035283</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731371510.2075522</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731371508.3035283.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731371510.2075522.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>102.38</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>102.65</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>0.2700000000000102</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731371511.8638277</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731371513.4505606</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731371511.8638277.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731371513.4505606.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>102.62</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>102.58</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>0.04000000000000625</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731371513.534305</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731371513.6563451</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731371513.534305.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731371513.6563451.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>102.38</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>102.64</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>0.2600000000000051</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731371513.7275727</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731371514.4148736</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731371513.7275727.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731371514.4148736.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>102.32</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>102.76</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>0.4400000000000119</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.43</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731371515.5029545</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731371517.049457</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731371515.5029545.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731371517.049457.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>102.87</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>102.79</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>0.07999999999999829</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731371519.9472528</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731371520.7063186</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731371519.9472528.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731371520.7063186.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>103.36</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>103</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>0.3599999999999994</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.35</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731371522.8932493</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731371523.0703084</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731371522.8932493.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731371523.0703084.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>103</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>103.24</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>0.2399999999999949</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731371523.8742108</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731371524.1202915</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731371523.8742108.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731371524.1202915.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>102.69</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>103.1</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>0.4099999999999966</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731371525.6866915</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731371527.0184112</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/MXI1731371525.6866915.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/MXI1731371527.0184112.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>2759.1</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>2754.5</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>4.599999999999909</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731371527.287296</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731371527.857838</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/MXI1731371527.287296.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/MXI1731371527.857838.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>2750.4</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>2755.9</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>5.5</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731371528.4861825</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731371531.9751353</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/MXI1731371528.4861825.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/MXI1731371531.9751353.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>2749.6</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>2740</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>-9.599999999999909</v>
+      </c>
+      <c r="N66" t="n">
+        <v>-0.35</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731371532.6719081</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731371533.8532467</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/MXI1731371532.6719081.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/MXI1731371533.8532467.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>2746.65</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>2743.9</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>2.75</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731371535.4028895</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731371535.570277</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/MXI1731371535.4028895.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/MXI1731371535.570277.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>2738.65</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>2745.1</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>6.449999999999818</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731371536.9650173</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731371538.532452</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/MXI1731371536.9650173.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/MXI1731371538.532452.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>2750.1</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>2746.85</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>3.25</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731371540.953095</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731371541.9444964</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/MXI1731371540.953095.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/MXI1731371541.9444964.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>2754.05</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>2749.3</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>4.75</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731371543.0695367</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731371543.312445</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/MXI1731371543.0695367.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/MXI1731371543.312445.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>2748.25</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>2751.4</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>3.150000000000091</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731371543.6991005</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731371543.6991005.png</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
+          <t>./test_images/MXI1731371543.6991005.png</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>2746.15</v>
       </c>
-      <c r="J72" t="n">
-        <v>2746.15</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0</v>
+      <c r="L72" t="n">
+        <v>2744.45</v>
+      </c>
+      <c r="M72" t="n">
+        <v>-1.700000000000273</v>
+      </c>
+      <c r="N72" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>APTK</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731371553.8309016</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731371553.99175</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/APTK1731371553.8309016.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/APTK1731371553.99175.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>10.86</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>10.864</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>0.004000000000001336</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>APTK</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731371555.3886487</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731371555.8805976</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/APTK1731371555.3886487.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/APTK1731371555.8805976.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>10.832</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>10.856</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>0.02399999999999913</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>APTK</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731371559.447353</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731371561.0801477</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/APTK1731371559.447353.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/APTK1731371561.0801477.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>10.836</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>10.852</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>0.01600000000000001</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>APTK</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731371563.587205</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>./test_images/APTK1731371563.587205.png</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
+          <t>./test_images/APTK1731371563.587205.png</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>10.852</v>
       </c>
-      <c r="J76" t="n">
-        <v>10.852</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0</v>
+      <c r="L76" t="n">
+        <v>10.868</v>
+      </c>
+      <c r="M76" t="n">
+        <v>-0.01600000000000001</v>
+      </c>
+      <c r="N76" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>PIKK</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731371567.3195803</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1731371569.174672</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731371567.3195803.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731371569.174672.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>481.9</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>483</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>-1.100000000000023</v>
+      </c>
+      <c r="N77" t="n">
+        <v>-0.23</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>PIKK</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731371569.2526908</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>1731371571.7502606</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731371569.2526908.png</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731371571.7502606.png</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>481</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>480.6</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>-0.3999999999999773</v>
+      </c>
+      <c r="N78" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>PIKK</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731371572.0392578</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1731371573.6221752</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731371572.0392578.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731371573.6221752.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>481.9</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>481.7</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>0.1999999999999886</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>PIKK</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1731371574.5479379</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>1731371575.724221</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731371574.5479379.png</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731371575.724221.png</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>480.2</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>482</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>1.800000000000011</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.37</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>PIKK</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1731371576.899907</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>1731371579.8878021</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731371576.899907.png</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731371579.8878021.png</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>483.4</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>486.1</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>-2.700000000000045</v>
+      </c>
+      <c r="N81" t="n">
+        <v>-0.5599999999999999</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>PIKK</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1731371580.1351907</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>1731371580.8177612</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731371580.1351907.png</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731371580.8177612.png</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>484.8</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>486.7</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>1.899999999999977</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.39</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>PIKK</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1731371580.9528406</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>1731371581.3024771</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731371580.9528406.png</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731371581.3024771.png</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>487.2</v>
       </c>
-      <c r="J83" t="n">
+      <c r="L83" t="n">
         <v>485.4</v>
       </c>
-      <c r="K83" t="n">
+      <c r="M83" t="n">
         <v>1.800000000000011</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0.37</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>PIKK</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1731371581.5089924</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>1731371581.9587035</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731371581.5089924.png</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731371581.9587035.png</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
         <v>484.6</v>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>485.2</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>0.5999999999999659</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>PIKK</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>1731371583.555111</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>1731371583.912104</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731371583.555111.png</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731371583.912104.png</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
         <v>483.3</v>
       </c>
-      <c r="J85" t="n">
+      <c r="L85" t="n">
         <v>484.7</v>
       </c>
-      <c r="K85" t="n">
+      <c r="M85" t="n">
         <v>1.399999999999977</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>1731371585.7342694</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>1731371586.7262921</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>./test_images/TATN1731371585.7342694.png</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>./test_images/TATN1731371586.7262921.png</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
         <v>575.9</v>
       </c>
-      <c r="J86" t="n">
+      <c r="L86" t="n">
         <v>575.5</v>
       </c>
-      <c r="K86" t="n">
+      <c r="M86" t="n">
         <v>0.3999999999999773</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>1731371587.517766</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>1731371588.0549703</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>./test_images/TATN1731371587.517766.png</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>./test_images/TATN1731371588.0549703.png</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
         <v>575</v>
       </c>
-      <c r="J87" t="n">
+      <c r="L87" t="n">
         <v>576.3</v>
       </c>
-      <c r="K87" t="n">
+      <c r="M87" t="n">
         <v>1.299999999999955</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>1731371588.2866466</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>1731371588.4720042</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>./test_images/TATN1731371588.2866466.png</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>./test_images/TATN1731371588.4720042.png</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
         <v>575.1</v>
       </c>
-      <c r="J88" t="n">
+      <c r="L88" t="n">
         <v>576.3</v>
       </c>
-      <c r="K88" t="n">
+      <c r="M88" t="n">
         <v>1.199999999999932</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>1731371588.964207</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>1731371590.6216533</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>./test_images/TATN1731371588.964207.png</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>./test_images/TATN1731371590.6216533.png</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
         <v>575</v>
       </c>
-      <c r="J89" t="n">
+      <c r="L89" t="n">
         <v>574.9</v>
       </c>
-      <c r="K89" t="n">
+      <c r="M89" t="n">
         <v>-0.1000000000000227</v>
+      </c>
+      <c r="N89" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>1731371590.6705568</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>1731371590.966046</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>./test_images/TATN1731371590.6705568.png</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>./test_images/TATN1731371590.966046.png</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
         <v>575.8</v>
       </c>
-      <c r="J90" t="n">
+      <c r="L90" t="n">
         <v>575.4</v>
       </c>
-      <c r="K90" t="n">
+      <c r="M90" t="n">
         <v>0.3999999999999773</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="n">
+        <v>89</v>
+      </c>
+      <c r="D91" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>1731371592.9869773</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>1731371594.8870468</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>./test_images/TATN1731371592.9869773.png</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>./test_images/TATN1731371594.8870468.png</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
         <v>577.8</v>
       </c>
-      <c r="J91" t="n">
+      <c r="L91" t="n">
         <v>577</v>
       </c>
-      <c r="K91" t="n">
+      <c r="M91" t="n">
         <v>0.7999999999999545</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="n">
+        <v>90</v>
+      </c>
+      <c r="D92" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>1731371595.3467636</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>1731371595.481051</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>./test_images/TATN1731371595.3467636.png</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>./test_images/TATN1731371595.481051.png</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
         <v>577.1</v>
       </c>
-      <c r="J92" t="n">
+      <c r="L92" t="n">
         <v>578</v>
       </c>
-      <c r="K92" t="n">
+      <c r="M92" t="n">
         <v>0.8999999999999773</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" t="n">
+        <v>91</v>
+      </c>
+      <c r="D93" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>1731371596.5867867</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>1731371600.420354</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>./test_images/TATN1731371596.5867867.png</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>./test_images/TATN1731371600.420354.png</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
         <v>578.9</v>
       </c>
-      <c r="J93" t="n">
+      <c r="L93" t="n">
         <v>580.9</v>
       </c>
-      <c r="K93" t="n">
+      <c r="M93" t="n">
         <v>-2</v>
+      </c>
+      <c r="N93" t="n">
+        <v>-0.35</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" t="n">
+        <v>92</v>
+      </c>
+      <c r="D94" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>1731371601.1140125</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>1731371602.8078144</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>./test_images/TATN1731371601.1140125.png</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>./test_images/TATN1731371602.8078144.png</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
         <v>582.9</v>
       </c>
-      <c r="J94" t="n">
+      <c r="L94" t="n">
         <v>582.2</v>
       </c>
-      <c r="K94" t="n">
+      <c r="M94" t="n">
         <v>0.6999999999999318</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" t="n">
+        <v>93</v>
+      </c>
+      <c r="C95" t="n">
+        <v>93</v>
+      </c>
+      <c r="D95" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>1731371603.4057152</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr"/>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>./test_images/TATN1731371603.4057152.png</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr">
         <is>
+          <t>./test_images/TATN1731371603.4057152.png</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I95" t="n">
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
         <v>581.1</v>
       </c>
-      <c r="J95" t="n">
-        <v>581.1</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0</v>
+      <c r="L95" t="n">
+        <v>575.7</v>
+      </c>
+      <c r="M95" t="n">
+        <v>-5.399999999999977</v>
+      </c>
+      <c r="N95" t="n">
+        <v>-0.9299999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -5041,7 +5900,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5070,6 +5929,16 @@
           <t>part</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -5086,6 +5955,12 @@
       <c r="D2" t="n">
         <v>0.2500000000000014</v>
       </c>
+      <c r="E2" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -5094,13 +5969,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.599999999999682</v>
+        <v>-1.800000000000296</v>
       </c>
       <c r="C3" t="n">
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3599999999999682</v>
+        <v>-0.1800000000000296</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="4">
@@ -5110,13 +5991,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>20.84999999999991</v>
+        <v>19.14999999999964</v>
       </c>
       <c r="C4" t="n">
         <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>2.316666666666657</v>
+        <v>2.127777777777737</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="5">
@@ -5134,6 +6021,12 @@
       <c r="D5" t="n">
         <v>0.3888888888888762</v>
       </c>
+      <c r="E5" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -5150,6 +6043,12 @@
       <c r="D6" t="n">
         <v>0.5250000000000057</v>
       </c>
+      <c r="E6" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -5158,13 +6057,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.560000000000002</v>
+        <v>1.580000000000013</v>
       </c>
       <c r="C7" t="n">
         <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1950000000000003</v>
+        <v>0.1975000000000016</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="8">
@@ -5174,13 +6079,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.5</v>
+        <v>1.350000000000023</v>
       </c>
       <c r="C8" t="n">
         <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1875</v>
+        <v>0.1687500000000028</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="9">
@@ -5190,13 +6101,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.1599999999999966</v>
+        <v>-0.0899999999999892</v>
       </c>
       <c r="C9" t="n">
         <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.01999999999999957</v>
+        <v>-0.01124999999999865</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.1200000000000001</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="10">
@@ -5214,6 +6131,12 @@
       <c r="D10" t="n">
         <v>0.02928571428571404</v>
       </c>
+      <c r="E10" t="n">
+        <v>0.5399999999999999</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -5230,6 +6153,12 @@
       <c r="D11" t="n">
         <v>-4.416666666666667</v>
       </c>
+      <c r="E11" t="n">
+        <v>-0.3599999999999999</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.06</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -5238,13 +6167,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7999999999999545</v>
+        <v>-0.4000000000000909</v>
       </c>
       <c r="C12" t="n">
         <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1333333333333258</v>
+        <v>-0.06666666666668182</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.05000000000000004</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="13">
@@ -5254,13 +6189,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.04400000000000048</v>
+        <v>0.02800000000000047</v>
       </c>
       <c r="C13" t="n">
         <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01100000000000012</v>
+        <v>0.007000000000000117</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="14">
@@ -5276,6 +6217,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
